--- a/cbrunner/Parameters/Parameters_NutrientApp.xlsx
+++ b/cbrunner/Parameters/Parameters_NutrientApp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECD2A59-3297-40EA-9528-D029ED8EA39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9DFF08-0AC6-436F-B627-6A95304CD1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -733,7 +733,7 @@
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1537,10 +1537,14 @@
         <v>86</v>
       </c>
       <c r="B49" s="6">
+        <f>5*D49</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C49" s="17">
+        <v>0</v>
+      </c>
+      <c r="D49" s="6">
         <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C49" s="17">
-        <v>0</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>85</v>
@@ -1551,10 +1555,14 @@
         <v>87</v>
       </c>
       <c r="B50" s="6">
+        <f>5*D50</f>
+        <v>5.9999999999999993E-3</v>
+      </c>
+      <c r="C50" s="17">
+        <v>0</v>
+      </c>
+      <c r="D50" s="6">
         <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="C50" s="17">
-        <v>0</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>85</v>
